--- a/upcoming_tournaments_T1.xlsx
+++ b/upcoming_tournaments_T1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,22 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>additional_info</t>
+          <t>meeting_time</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>bringing_children</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>snack_and_drinks</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>games_rents_during_tournament</t>
         </is>
       </c>
     </row>
@@ -479,35 +494,50 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ticket to Ride</t>
+          <t>Monopoly</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>961</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
         </is>
       </c>
     </row>
@@ -517,35 +547,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Monopoly</t>
+          <t>Catan</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>184</v>
+        <v>494</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>evening tournament</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
         </is>
       </c>
     </row>
@@ -555,35 +600,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ticket to Ride</t>
+          <t>Monopoly</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>310</v>
+        <v>675</v>
       </c>
       <c r="F4" t="n">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>evening tournament</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
         </is>
       </c>
     </row>
@@ -593,35 +653,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Scrabble</t>
+          <t>Monopoly</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>morning tournament</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
         </is>
       </c>
     </row>
@@ -631,7 +706,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,26 +715,41 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F6" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="G6" t="n">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>do not bring children</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
         </is>
       </c>
     </row>
@@ -669,35 +759,50 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ticket to Ride</t>
+          <t>Chess</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>665</v>
+        <v>338</v>
       </c>
       <c r="F7" t="n">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="G7" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>no additional info</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
         </is>
       </c>
     </row>
@@ -712,30 +817,45 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monopoly</t>
+          <t>Chess</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G8" t="n">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>evening tournament</t>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
         </is>
       </c>
     </row>
@@ -745,35 +865,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ticket to Ride</t>
+          <t>Monopoly</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>642</v>
+        <v>89</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>382</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>meet 30 minutes before start</t>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
         </is>
       </c>
     </row>
@@ -783,7 +918,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -792,26 +927,41 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>397</v>
       </c>
       <c r="F10" t="n">
-        <v>442</v>
+        <v>152</v>
       </c>
       <c r="G10" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>free snacks and drinks</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
         </is>
       </c>
     </row>
@@ -821,35 +971,50 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Monopoly</t>
+          <t>Scrabble</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>403</v>
+        <v>47</v>
       </c>
       <c r="G11" t="n">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>morning tournament</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
         </is>
       </c>
     </row>
@@ -859,7 +1024,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -868,26 +1033,41 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>69</v>
+        <v>401</v>
       </c>
       <c r="F12" t="n">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="G12" t="n">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="H12" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>meet 30 minutes before start</t>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
         </is>
       </c>
     </row>
@@ -897,35 +1077,50 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Scrabble</t>
+          <t>Chess</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E13" t="n">
-        <v>662</v>
+        <v>55</v>
       </c>
       <c r="F13" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="G13" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H13" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>evening tournament</t>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
         </is>
       </c>
     </row>
@@ -935,35 +1130,50 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Scrabble</t>
+          <t>Ticket to Ride</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>677</v>
+        <v>104</v>
       </c>
       <c r="F14" t="n">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>do not bring children</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
         </is>
       </c>
     </row>
@@ -973,35 +1183,50 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Monopoly</t>
+          <t>Scrabble</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>do not bring children</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1236,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1020,26 +1245,41 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>rents disabled during tournament</t>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
         </is>
       </c>
     </row>
@@ -1049,35 +1289,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chess</t>
+          <t>Monopoly</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="G17" t="n">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="H17" t="n">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>do not bring children</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
         </is>
       </c>
     </row>
@@ -1087,35 +1342,50 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ticket to Ride</t>
+          <t>Catan</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E18" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F18" t="n">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H18" t="n">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>no additional info</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
         </is>
       </c>
     </row>
@@ -1125,33 +1395,48 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Catan</t>
+          <t>Scrabble</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E19" t="n">
-        <v>93</v>
+        <v>889</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
+        <is>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>rents disabled during tournament</t>
         </is>
@@ -1163,35 +1448,50 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Catan</t>
+          <t>Scrabble</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>839</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>452</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>389</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>meet 30 minutes before start</t>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>do not bring kids to the tournament</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
         </is>
       </c>
     </row>
@@ -1201,35 +1501,315 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Scrabble</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>194</v>
+      </c>
+      <c r="F21" t="n">
+        <v>158</v>
+      </c>
+      <c r="G21" t="n">
+        <v>253</v>
+      </c>
+      <c r="H21" t="n">
+        <v>111</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Monopoly</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>17</v>
-      </c>
-      <c r="E21" t="n">
-        <v>302</v>
-      </c>
-      <c r="F21" t="n">
-        <v>126</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="D22" t="n">
+        <v>31</v>
+      </c>
+      <c r="E22" t="n">
+        <v>406</v>
+      </c>
+      <c r="F22" t="n">
+        <v>239</v>
+      </c>
+      <c r="G22" t="n">
+        <v>106</v>
+      </c>
+      <c r="H22" t="n">
+        <v>213</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ticket to Ride</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>322</v>
+      </c>
+      <c r="F23" t="n">
+        <v>37</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>24</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ticket to Ride</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>29</v>
+      </c>
+      <c r="E24" t="n">
+        <v>607</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" t="n">
+        <v>166</v>
+      </c>
+      <c r="H24" t="n">
+        <v>113</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>free snacks and drinks</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chess</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" t="n">
+        <v>90</v>
+      </c>
+      <c r="F25" t="n">
+        <v>38</v>
+      </c>
+      <c r="G25" t="n">
+        <v>59</v>
+      </c>
+      <c r="H25" t="n">
+        <v>80</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>rents allowed during tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="H21" t="n">
-        <v>28</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>free snacks and drinks</t>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Monopoly</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>47</v>
+      </c>
+      <c r="E26" t="n">
+        <v>649</v>
+      </c>
+      <c r="F26" t="n">
+        <v>43</v>
+      </c>
+      <c r="G26" t="n">
+        <v>66</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>children allowed</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>no snacks and drinks provided</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>rents disabled during tournament</t>
         </is>
       </c>
     </row>
